--- a/20130038_NguyenThiXuanHoa_TestDesign.xlsx
+++ b/20130038_NguyenThiXuanHoa_TestDesign.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nam4\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD722D-0A4B-4A4D-873E-CB5A9D20FBF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE412576-F687-43C6-BCD5-A3BE483CA32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED698022-BC7D-4A2D-83ED-3BCE396DF1CB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Requirement Level 1</t>
   </si>
@@ -59,36 +59,24 @@
     <t>6.1.1 Trang chính của lịch sử mua hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">6.1 Lịch sử mua hàng </t>
-  </si>
-  <si>
     <t>1. Hiển thị</t>
   </si>
   <si>
     <t>Kiểm tra khi click vào các item trạng thái đơn hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra khi click vào "Xem chi tiết" có giống đặc tả SRS không </t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
     <t>6.1.2 Trang chi tiết đơn hàng</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Mua lại </t>
-  </si>
-  <si>
     <t>Kiểm tra khi click mua lại thì sản phẩm có được thêm vào giỏ hàng không</t>
   </si>
   <si>
     <t>Function</t>
   </si>
   <si>
-    <t xml:space="preserve">Kiểm tra khi click vào "Xem hoá đơn" </t>
-  </si>
-  <si>
     <t>2. Lọc ngày, tháng, năm</t>
   </si>
   <si>
@@ -116,29 +104,50 @@
     <t>Nhấn gửi đánh giá</t>
   </si>
   <si>
-    <t xml:space="preserve">Thêm 1 ảnh, thêm 2 ảnh, thêm 3 ảnh   </t>
-  </si>
-  <si>
     <t>Kiểm tra khi click chọn khoảng ngày tháng năm</t>
   </si>
   <si>
     <t>Kiểm tra khi click mua lại thì có chuyển sang trang giỏ hàng không</t>
   </si>
   <si>
+    <t>Click vào tên sản phẩm của đơn hàng để xem chi tiết đơn hàng</t>
+  </si>
+  <si>
+    <t>Trạng thái "Tất cả","Chờ xác nhận", "Đã xác nhận","Đang vận chuyển", "Đã giao hàng", "Đã huỷ"</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi click vào "Xem chi tiết" có giống đặc tả SRS không</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi click vào "Xem hoá đơn"</t>
+  </si>
+  <si>
+    <t>Kiểm tra có được "Huỷ hàng" khi đơn hàng ở trạng thái “Chờ xác nhận” và “Đã xác nhận”</t>
+  </si>
+  <si>
+    <t>1. Mua lại</t>
+  </si>
+  <si>
+    <t>Thêm 1 ảnh, thêm 2 ảnh, thêm 3 ảnh</t>
+  </si>
+  <si>
+    <t>6.1 Lịch sử mua hàng</t>
+  </si>
+  <si>
     <t>Kiểm tra đánh giá được gửi lên trang chi tiết sản phẩm chưa</t>
   </si>
   <si>
-    <t>Click vào tên sản phẩm của đơn hàng để xem chi tiết đơn hàng</t>
-  </si>
-  <si>
-    <t>Trạng thái "Tất cả","Chờ xác nhận", "Đã xác nhận","Đang vận chuyển", "Đã giao hàng", "Đã huỷ"</t>
+    <t>Kiểm tra khi hovêr chuột vào hình ảnh các đơn hàng có nổi lên không</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấn chọn ngày bắt đầu hoặc ngày kết thúc thì cột đó có đổi màu hay không</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,8 +155,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +181,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -193,11 +220,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,17 +300,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,39 +635,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{662736AD-65DD-4E71-BFCD-61C9A1A0A2AC}">
-  <dimension ref="A1:KU18"/>
+  <dimension ref="A1:KU20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C9" sqref="C9:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.88671875" customWidth="1"/>
-    <col min="2" max="2" width="33.6640625" customWidth="1"/>
-    <col min="3" max="3" width="28.33203125" customWidth="1"/>
-    <col min="4" max="4" width="67.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="79.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="84.44140625" customWidth="1"/>
+    <col min="6" max="6" width="93.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75" s="1" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
@@ -637,525 +740,560 @@
       <c r="BV1" s="3"/>
       <c r="BW1" s="3"/>
     </row>
-    <row r="2" spans="1:75" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:75" ht="19.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:75" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="E14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:75" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:307" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:307" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="E18" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:307" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:75" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:307" s="2" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
-      <c r="AE17"/>
-      <c r="AF17"/>
-      <c r="AG17"/>
-      <c r="AH17"/>
-      <c r="AI17"/>
-      <c r="AJ17"/>
-      <c r="AK17"/>
-      <c r="AL17"/>
-      <c r="AM17"/>
-      <c r="AN17"/>
-      <c r="AO17"/>
-      <c r="AP17"/>
-      <c r="AQ17"/>
-      <c r="AR17"/>
-      <c r="AS17"/>
-      <c r="AT17"/>
-      <c r="AU17"/>
-      <c r="AV17"/>
-      <c r="AW17"/>
-      <c r="AX17"/>
-      <c r="AY17"/>
-      <c r="AZ17"/>
-      <c r="BA17"/>
-      <c r="BB17"/>
-      <c r="BC17"/>
-      <c r="BD17"/>
-      <c r="BE17"/>
-      <c r="BF17"/>
-      <c r="BG17"/>
-      <c r="BH17"/>
-      <c r="BI17"/>
-      <c r="BJ17"/>
-      <c r="BK17"/>
-      <c r="BL17"/>
-      <c r="BM17"/>
-      <c r="BN17"/>
-      <c r="BO17"/>
-      <c r="BP17"/>
-      <c r="BQ17"/>
-      <c r="BR17"/>
-      <c r="BS17"/>
-      <c r="BT17"/>
-      <c r="BU17"/>
-      <c r="BV17"/>
-      <c r="BW17"/>
-      <c r="BX17"/>
-      <c r="BY17"/>
-      <c r="BZ17"/>
-      <c r="CA17"/>
-      <c r="CB17"/>
-      <c r="CC17"/>
-      <c r="CD17"/>
-      <c r="CE17"/>
-      <c r="CF17"/>
-      <c r="CG17"/>
-      <c r="CH17"/>
-      <c r="CI17"/>
-      <c r="CJ17"/>
-      <c r="CK17"/>
-      <c r="CL17"/>
-      <c r="CM17"/>
-      <c r="CN17"/>
-      <c r="CO17"/>
-      <c r="CP17"/>
-      <c r="CQ17"/>
-      <c r="CR17"/>
-      <c r="CS17"/>
-      <c r="CT17"/>
-      <c r="CU17"/>
-      <c r="CV17"/>
-      <c r="CW17"/>
-      <c r="CX17"/>
-      <c r="CY17"/>
-      <c r="CZ17"/>
-      <c r="DA17"/>
-      <c r="DB17"/>
-      <c r="DC17"/>
-      <c r="DD17"/>
-      <c r="DE17"/>
-      <c r="DF17"/>
-      <c r="DG17"/>
-      <c r="DH17"/>
-      <c r="DI17"/>
-      <c r="DJ17"/>
-      <c r="DK17"/>
-      <c r="DL17"/>
-      <c r="DM17"/>
-      <c r="DN17"/>
-      <c r="DO17"/>
-      <c r="DP17"/>
-      <c r="DQ17"/>
-      <c r="DR17"/>
-      <c r="DS17"/>
-      <c r="DT17"/>
-      <c r="DU17"/>
-      <c r="DV17"/>
-      <c r="DW17"/>
-      <c r="DX17"/>
-      <c r="DY17"/>
-      <c r="DZ17"/>
-      <c r="EA17"/>
-      <c r="EB17"/>
-      <c r="EC17"/>
-      <c r="ED17"/>
-      <c r="EE17"/>
-      <c r="EF17"/>
-      <c r="EG17"/>
-      <c r="EH17"/>
-      <c r="EI17"/>
-      <c r="EJ17"/>
-      <c r="EK17"/>
-      <c r="EL17"/>
-      <c r="EM17"/>
-      <c r="EN17"/>
-      <c r="EO17"/>
-      <c r="EP17"/>
-      <c r="EQ17"/>
-      <c r="ER17"/>
-      <c r="ES17"/>
-      <c r="ET17"/>
-      <c r="EU17"/>
-      <c r="EV17"/>
-      <c r="EW17"/>
-      <c r="EX17"/>
-      <c r="EY17"/>
-      <c r="EZ17"/>
-      <c r="FA17"/>
-      <c r="FB17"/>
-      <c r="FC17"/>
-      <c r="FD17"/>
-      <c r="FE17"/>
-      <c r="FF17"/>
-      <c r="FG17"/>
-      <c r="FH17"/>
-      <c r="FI17"/>
-      <c r="FJ17"/>
-      <c r="FK17"/>
-      <c r="FL17"/>
-      <c r="FM17"/>
-      <c r="FN17"/>
-      <c r="FO17"/>
-      <c r="FP17"/>
-      <c r="FQ17"/>
-      <c r="FR17"/>
-      <c r="FS17"/>
-      <c r="FT17"/>
-      <c r="FU17"/>
-      <c r="FV17"/>
-      <c r="FW17"/>
-      <c r="FX17"/>
-      <c r="FY17"/>
-      <c r="FZ17"/>
-      <c r="GA17"/>
-      <c r="GB17"/>
-      <c r="GC17"/>
-      <c r="GD17"/>
-      <c r="GE17"/>
-      <c r="GF17"/>
-      <c r="GG17"/>
-      <c r="GH17"/>
-      <c r="GI17"/>
-      <c r="GJ17"/>
-      <c r="GK17"/>
-      <c r="GL17"/>
-      <c r="GM17"/>
-      <c r="GN17"/>
-      <c r="GO17"/>
-      <c r="GP17"/>
-      <c r="GQ17"/>
-      <c r="GR17"/>
-      <c r="GS17"/>
-      <c r="GT17"/>
-      <c r="GU17"/>
-      <c r="GV17"/>
-      <c r="GW17"/>
-      <c r="GX17"/>
-      <c r="GY17"/>
-      <c r="GZ17"/>
-      <c r="HA17"/>
-      <c r="HB17"/>
-      <c r="HC17"/>
-      <c r="HD17"/>
-      <c r="HE17"/>
-      <c r="HF17"/>
-      <c r="HG17"/>
-      <c r="HH17"/>
-      <c r="HI17"/>
-      <c r="HJ17"/>
-      <c r="HK17"/>
-      <c r="HL17"/>
-      <c r="HM17"/>
-      <c r="HN17"/>
-      <c r="HO17"/>
-      <c r="HP17"/>
-      <c r="HQ17"/>
-      <c r="HR17"/>
-      <c r="HS17"/>
-      <c r="HT17"/>
-      <c r="HU17"/>
-      <c r="HV17"/>
-      <c r="HW17"/>
-      <c r="HX17"/>
-      <c r="HY17"/>
-      <c r="HZ17"/>
-      <c r="IA17"/>
-      <c r="IB17"/>
-      <c r="IC17"/>
-      <c r="ID17"/>
-      <c r="IE17"/>
-      <c r="IF17"/>
-      <c r="IG17"/>
-      <c r="IH17"/>
-      <c r="II17"/>
-      <c r="IJ17"/>
-      <c r="IK17"/>
-      <c r="IL17"/>
-      <c r="IM17"/>
-      <c r="IN17"/>
-      <c r="IO17"/>
-      <c r="IP17"/>
-      <c r="IQ17"/>
-      <c r="IR17"/>
-      <c r="IS17"/>
-      <c r="IT17"/>
-      <c r="IU17"/>
-      <c r="IV17"/>
-      <c r="IW17"/>
-      <c r="IX17"/>
-      <c r="IY17"/>
-      <c r="IZ17"/>
-      <c r="JA17"/>
-      <c r="JB17"/>
-      <c r="JC17"/>
-      <c r="JD17"/>
-      <c r="JE17"/>
-      <c r="JF17"/>
-      <c r="JG17"/>
-      <c r="JH17"/>
-      <c r="JI17"/>
-      <c r="JJ17"/>
-      <c r="JK17"/>
-      <c r="JL17"/>
-      <c r="JM17"/>
-      <c r="JN17"/>
-      <c r="JO17"/>
-      <c r="JP17"/>
-      <c r="JQ17"/>
-      <c r="JR17"/>
-      <c r="JS17"/>
-      <c r="JT17"/>
-      <c r="JU17"/>
-      <c r="JV17"/>
-      <c r="JW17"/>
-      <c r="JX17"/>
-      <c r="JY17"/>
-      <c r="JZ17"/>
-      <c r="KA17"/>
-      <c r="KB17"/>
-      <c r="KC17"/>
-      <c r="KD17"/>
-      <c r="KE17"/>
-      <c r="KF17"/>
-      <c r="KG17"/>
-      <c r="KH17"/>
-      <c r="KI17"/>
-      <c r="KJ17"/>
-      <c r="KK17"/>
-      <c r="KL17"/>
-      <c r="KM17"/>
-      <c r="KN17"/>
-      <c r="KO17"/>
-      <c r="KP17"/>
-      <c r="KQ17"/>
-      <c r="KR17"/>
-      <c r="KS17"/>
-      <c r="KT17"/>
-      <c r="KU17"/>
-    </row>
-    <row r="18" spans="1:307" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="E19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:307" s="2" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+      <c r="AL20"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+      <c r="AO20"/>
+      <c r="AP20"/>
+      <c r="AQ20"/>
+      <c r="AR20"/>
+      <c r="AS20"/>
+      <c r="AT20"/>
+      <c r="AU20"/>
+      <c r="AV20"/>
+      <c r="AW20"/>
+      <c r="AX20"/>
+      <c r="AY20"/>
+      <c r="AZ20"/>
+      <c r="BA20"/>
+      <c r="BB20"/>
+      <c r="BC20"/>
+      <c r="BD20"/>
+      <c r="BE20"/>
+      <c r="BF20"/>
+      <c r="BG20"/>
+      <c r="BH20"/>
+      <c r="BI20"/>
+      <c r="BJ20"/>
+      <c r="BK20"/>
+      <c r="BL20"/>
+      <c r="BM20"/>
+      <c r="BN20"/>
+      <c r="BO20"/>
+      <c r="BP20"/>
+      <c r="BQ20"/>
+      <c r="BR20"/>
+      <c r="BS20"/>
+      <c r="BT20"/>
+      <c r="BU20"/>
+      <c r="BV20"/>
+      <c r="BW20"/>
+      <c r="BX20"/>
+      <c r="BY20"/>
+      <c r="BZ20"/>
+      <c r="CA20"/>
+      <c r="CB20"/>
+      <c r="CC20"/>
+      <c r="CD20"/>
+      <c r="CE20"/>
+      <c r="CF20"/>
+      <c r="CG20"/>
+      <c r="CH20"/>
+      <c r="CI20"/>
+      <c r="CJ20"/>
+      <c r="CK20"/>
+      <c r="CL20"/>
+      <c r="CM20"/>
+      <c r="CN20"/>
+      <c r="CO20"/>
+      <c r="CP20"/>
+      <c r="CQ20"/>
+      <c r="CR20"/>
+      <c r="CS20"/>
+      <c r="CT20"/>
+      <c r="CU20"/>
+      <c r="CV20"/>
+      <c r="CW20"/>
+      <c r="CX20"/>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+      <c r="DP20"/>
+      <c r="DQ20"/>
+      <c r="DR20"/>
+      <c r="DS20"/>
+      <c r="DT20"/>
+      <c r="DU20"/>
+      <c r="DV20"/>
+      <c r="DW20"/>
+      <c r="DX20"/>
+      <c r="DY20"/>
+      <c r="DZ20"/>
+      <c r="EA20"/>
+      <c r="EB20"/>
+      <c r="EC20"/>
+      <c r="ED20"/>
+      <c r="EE20"/>
+      <c r="EF20"/>
+      <c r="EG20"/>
+      <c r="EH20"/>
+      <c r="EI20"/>
+      <c r="EJ20"/>
+      <c r="EK20"/>
+      <c r="EL20"/>
+      <c r="EM20"/>
+      <c r="EN20"/>
+      <c r="EO20"/>
+      <c r="EP20"/>
+      <c r="EQ20"/>
+      <c r="ER20"/>
+      <c r="ES20"/>
+      <c r="ET20"/>
+      <c r="EU20"/>
+      <c r="EV20"/>
+      <c r="EW20"/>
+      <c r="EX20"/>
+      <c r="EY20"/>
+      <c r="EZ20"/>
+      <c r="FA20"/>
+      <c r="FB20"/>
+      <c r="FC20"/>
+      <c r="FD20"/>
+      <c r="FE20"/>
+      <c r="FF20"/>
+      <c r="FG20"/>
+      <c r="FH20"/>
+      <c r="FI20"/>
+      <c r="FJ20"/>
+      <c r="FK20"/>
+      <c r="FL20"/>
+      <c r="FM20"/>
+      <c r="FN20"/>
+      <c r="FO20"/>
+      <c r="FP20"/>
+      <c r="FQ20"/>
+      <c r="FR20"/>
+      <c r="FS20"/>
+      <c r="FT20"/>
+      <c r="FU20"/>
+      <c r="FV20"/>
+      <c r="FW20"/>
+      <c r="FX20"/>
+      <c r="FY20"/>
+      <c r="FZ20"/>
+      <c r="GA20"/>
+      <c r="GB20"/>
+      <c r="GC20"/>
+      <c r="GD20"/>
+      <c r="GE20"/>
+      <c r="GF20"/>
+      <c r="GG20"/>
+      <c r="GH20"/>
+      <c r="GI20"/>
+      <c r="GJ20"/>
+      <c r="GK20"/>
+      <c r="GL20"/>
+      <c r="GM20"/>
+      <c r="GN20"/>
+      <c r="GO20"/>
+      <c r="GP20"/>
+      <c r="GQ20"/>
+      <c r="GR20"/>
+      <c r="GS20"/>
+      <c r="GT20"/>
+      <c r="GU20"/>
+      <c r="GV20"/>
+      <c r="GW20"/>
+      <c r="GX20"/>
+      <c r="GY20"/>
+      <c r="GZ20"/>
+      <c r="HA20"/>
+      <c r="HB20"/>
+      <c r="HC20"/>
+      <c r="HD20"/>
+      <c r="HE20"/>
+      <c r="HF20"/>
+      <c r="HG20"/>
+      <c r="HH20"/>
+      <c r="HI20"/>
+      <c r="HJ20"/>
+      <c r="HK20"/>
+      <c r="HL20"/>
+      <c r="HM20"/>
+      <c r="HN20"/>
+      <c r="HO20"/>
+      <c r="HP20"/>
+      <c r="HQ20"/>
+      <c r="HR20"/>
+      <c r="HS20"/>
+      <c r="HT20"/>
+      <c r="HU20"/>
+      <c r="HV20"/>
+      <c r="HW20"/>
+      <c r="HX20"/>
+      <c r="HY20"/>
+      <c r="HZ20"/>
+      <c r="IA20"/>
+      <c r="IB20"/>
+      <c r="IC20"/>
+      <c r="ID20"/>
+      <c r="IE20"/>
+      <c r="IF20"/>
+      <c r="IG20"/>
+      <c r="IH20"/>
+      <c r="II20"/>
+      <c r="IJ20"/>
+      <c r="IK20"/>
+      <c r="IL20"/>
+      <c r="IM20"/>
+      <c r="IN20"/>
+      <c r="IO20"/>
+      <c r="IP20"/>
+      <c r="IQ20"/>
+      <c r="IR20"/>
+      <c r="IS20"/>
+      <c r="IT20"/>
+      <c r="IU20"/>
+      <c r="IV20"/>
+      <c r="IW20"/>
+      <c r="IX20"/>
+      <c r="IY20"/>
+      <c r="IZ20"/>
+      <c r="JA20"/>
+      <c r="JB20"/>
+      <c r="JC20"/>
+      <c r="JD20"/>
+      <c r="JE20"/>
+      <c r="JF20"/>
+      <c r="JG20"/>
+      <c r="JH20"/>
+      <c r="JI20"/>
+      <c r="JJ20"/>
+      <c r="JK20"/>
+      <c r="JL20"/>
+      <c r="JM20"/>
+      <c r="JN20"/>
+      <c r="JO20"/>
+      <c r="JP20"/>
+      <c r="JQ20"/>
+      <c r="JR20"/>
+      <c r="JS20"/>
+      <c r="JT20"/>
+      <c r="JU20"/>
+      <c r="JV20"/>
+      <c r="JW20"/>
+      <c r="JX20"/>
+      <c r="JY20"/>
+      <c r="JZ20"/>
+      <c r="KA20"/>
+      <c r="KB20"/>
+      <c r="KC20"/>
+      <c r="KD20"/>
+      <c r="KE20"/>
+      <c r="KF20"/>
+      <c r="KG20"/>
+      <c r="KH20"/>
+      <c r="KI20"/>
+      <c r="KJ20"/>
+      <c r="KK20"/>
+      <c r="KL20"/>
+      <c r="KM20"/>
+      <c r="KN20"/>
+      <c r="KO20"/>
+      <c r="KP20"/>
+      <c r="KQ20"/>
+      <c r="KR20"/>
+      <c r="KS20"/>
+      <c r="KT20"/>
+      <c r="KU20"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="C12:C17"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="B2:B12"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="C9:C12"/>
+    <mergeCell ref="B13:B20"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
